--- a/docs/assets/disciplinas/LOT2059.xlsx
+++ b/docs/assets/disciplinas/LOT2059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introdução teórica da Química Orgânica aos estudantes de Engenharia Bioquímica abordando de forma sistematizada: a) a relação entre a estrutura das moléculas orgânicas e suas propriedades físico-químicas; b) a reatividade das moléculas orgânicas em função do tipo de grupo funcional que carregam e; c) as principais vias de reações entre moléculas orgânicas.</t>
+    <t>2143261 - André Luis Ferraz</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>2143261 - André Luis Ferraz</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>3380737 - Flávio Teixeira da Silva</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>A disciplina abordará os fundamentos da química orgânica que darão apoio às disciplinas subsequentes na área de bioquímica, biologia molecular, polímeros e química de biomassa. A abordagem teórica dará subsídios ao aluno para interpretar as propriedades e a reatividade das moléculas orgânicas desde um ponto de vista estrutural.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Estrutura versus propriedades físico-química dos: hidrocarbonetos, compostos com grupos funcionais formados por ligações simples, o grupo carbonila e seus compostos derivados, grupos funcionais que contém hetero-átomos, benzeno e aromaticidade;Esteroquímica; Reações químicas de compostos orgânicos: reações de alcenos e alcinos (adições à dupla ligação); reações de compostos aromáticos (substituição nucleofílica em aromáticos); reações de compostos orgânicos halogenados (substituição nucleofílica e eliminação); reações de álcoois, fenóis e éteres; reações de aldeídos e cetonas (adições em compostos carbonílicos); reações de ácidos carboxílicos e derivados.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>A avaliação será feita por meio de provas escritas (P1 e P2). Critério</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = [(P1x1) + (P2x2)]/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>SOLOMONS, T.W.G., FRYHLE, C.B. Química Orgânica 1 e 2. 10ª Edição, Rio de Janeiro, LTC Editora, 2012.BRUICE, P. Y. Química Orgânica, vol 1 e 2, São Paulo, Pearson Prentice Hall, 2006.ALLINGER, N.L. Química Orgânica, 2ª Edição, Rio de Janeiro, Guanabara Dois, 1976.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2059.xlsx
+++ b/docs/assets/disciplinas/LOT2059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introdução teórica da Química Orgânica aos estudantes de Engenharia Bioquímica abordando de forma sistematizada: a) a relação entre a estrutura das moléculas orgânicas e suas propriedades físico-químicas; b) a reatividade das moléculas orgânicas em função do tipo de grupo funcional que carregam e; c) as principais vias de reações entre moléculas orgânicas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>2143261 - André Luis Ferraz</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>3380737 - Flávio Teixeira da Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>A disciplina abordará os fundamentos da química orgânica que darão apoio às disciplinas subsequentes na área de bioquímica, biologia molecular, polímeros e química de biomassa. A abordagem teórica dará subsídios ao aluno para interpretar as propriedades e a reatividade das moléculas orgânicas desde um ponto de vista estrutural.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Estrutura versus propriedades físico-química dos: hidrocarbonetos, compostos com grupos funcionais formados por ligações simples, o grupo carbonila e seus compostos derivados, grupos funcionais que contém hetero-átomos, benzeno e aromaticidade;Esteroquímica; Reações químicas de compostos orgânicos: reações de alcenos e alcinos (adições à dupla ligação); reações de compostos aromáticos (substituição nucleofílica em aromáticos); reações de compostos orgânicos halogenados (substituição nucleofílica e eliminação); reações de álcoois, fenóis e éteres; reações de aldeídos e cetonas (adições em compostos carbonílicos); reações de ácidos carboxílicos e derivados.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>3380737 - Flávio Teixeira da Silva</t>
+    <t>A avaliação será feita por meio de provas escritas (P1 e P2). Critério</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas (P1 e P2). Critério</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = [(P1x1) + (P2x2)]/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = [(P1x1) + (P2x2)]/3</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>SOLOMONS, T.W.G., FRYHLE, C.B. Química Orgânica 1 e 2. 10ª Edição, Rio de Janeiro, LTC Editora, 2012.BRUICE, P. Y. Química Orgânica, vol 1 e 2, São Paulo, Pearson Prentice Hall, 2006.ALLINGER, N.L. Química Orgânica, 2ª Edição, Rio de Janeiro, Guanabara Dois, 1976.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
